--- a/src/test/resources/Exceldata/PythonTestData.xlsx
+++ b/src/test/resources/Exceldata/PythonTestData.xlsx
@@ -3,25 +3,38 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EFCB46A0-9153-4C1C-8AAE-3F3A64E3BACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\DSALGO\src\test\resources\Exceldata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840F07AC-528D-4626-B127-1F40860007C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{055C55FF-B322-4E80-9DFB-69BC0E9EB5D5}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidCode" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>pythonCode</t>
   </si>
@@ -35,7 +48,13 @@
     <t>Hello</t>
   </si>
   <si>
-    <t>print(10)</t>
+    <t>"8"</t>
+  </si>
+  <si>
+    <t>def print_sum(a, b):   
+  sum = a + b
+  print(sum)
+print_sum(5, 3)</t>
   </si>
 </sst>
 </file>
@@ -71,8 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,7 +412,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -414,12 +436,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Exceldata/PythonTestData.xlsx
+++ b/src/test/resources/Exceldata/PythonTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\DSALGO\src\test\resources\Exceldata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840F07AC-528D-4626-B127-1F40860007C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA59A15-BD41-40AC-B446-8DA7FAF0F51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{055C55FF-B322-4E80-9DFB-69BC0E9EB5D5}"/>
   </bookViews>
@@ -48,13 +48,13 @@
     <t>Hello</t>
   </si>
   <si>
+    <t>def print_sum(a, b):   
+    sum = a + b
+    print(sum)
+print_sum(5, 3)</t>
+  </si>
+  <si>
     <t>"8"</t>
-  </si>
-  <si>
-    <t>def print_sum(a, b):   
-  sum = a + b
-  print(sum)
-print_sum(5, 3)</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,10 +438,10 @@
     </row>
     <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Exceldata/PythonTestData.xlsx
+++ b/src/test/resources/Exceldata/PythonTestData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\OneDrive\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA59A15-BD41-40AC-B446-8DA7FAF0F51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C49900E4-EF57-497D-9AA1-16911F4AD9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{055C55FF-B322-4E80-9DFB-69BC0E9EB5D5}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidCode" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,8 +57,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -90,11 +94,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +426,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
